--- a/TestData/Chrome/S0154_EditCase.xlsx
+++ b/TestData/Chrome/S0154_EditCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\velsp\eclipse-workspace\FullStackAutomationPgm\TestData\Chrome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D4F8F-8635-47AA-9BC0-A116E00DD2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FB1985-E688-4B01-910D-70987070E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0E9BA53-6B9C-4C44-8EE2-BD171153529F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>caseID</t>
   </si>
@@ -64,100 +64,13 @@
     <t>High</t>
   </si>
   <si>
-    <t>00001191</t>
-  </si>
-  <si>
-    <t>00001196</t>
-  </si>
-  <si>
-    <t>00001197</t>
-  </si>
-  <si>
-    <t>00001199</t>
-  </si>
-  <si>
-    <t>00001201</t>
-  </si>
-  <si>
-    <t>00001203</t>
-  </si>
-  <si>
-    <t>00001215</t>
-  </si>
-  <si>
-    <t>00001221</t>
-  </si>
-  <si>
-    <t>00001223</t>
-  </si>
-  <si>
-    <t>00001225</t>
-  </si>
-  <si>
-    <t>00001226</t>
-  </si>
-  <si>
-    <t>00001229</t>
-  </si>
-  <si>
-    <t>00001231</t>
-  </si>
-  <si>
-    <t>00001233</t>
-  </si>
-  <si>
-    <t>00001254</t>
-  </si>
-  <si>
-    <t>00001255</t>
-  </si>
-  <si>
-    <t>00001257</t>
-  </si>
-  <si>
-    <t>00001259</t>
-  </si>
-  <si>
-    <t>00001261</t>
-  </si>
-  <si>
-    <t>00001264</t>
-  </si>
-  <si>
-    <t>00001273</t>
-  </si>
-  <si>
-    <t>00001274</t>
-  </si>
-  <si>
-    <t>00001275</t>
-  </si>
-  <si>
-    <t>00001281</t>
-  </si>
-  <si>
-    <t>00001283</t>
-  </si>
-  <si>
-    <t>00001285</t>
-  </si>
-  <si>
-    <t>00001289</t>
-  </si>
-  <si>
-    <t>00001291</t>
-  </si>
-  <si>
-    <t>00001293</t>
-  </si>
-  <si>
-    <t>00001296</t>
-  </si>
-  <si>
-    <t>00001298</t>
-  </si>
-  <si>
-    <t>00001300</t>
+    <t>00001324</t>
+  </si>
+  <si>
+    <t>00001325</t>
+  </si>
+  <si>
+    <t>00001327</t>
   </si>
 </sst>
 </file>
@@ -512,7 +425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB482C36-5C06-4F5F-969A-967DB14F92B5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -537,7 +452,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -551,7 +466,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -565,7 +480,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
